--- a/12X시제(능동+수동+조동사-능동+조동사-수동).xlsx
+++ b/12X시제(능동+수동+조동사-능동+조동사-수동).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="12345" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="12345" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Speak" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="433">
   <si>
     <t>12x 시제  (능동 + 수동    조동사-능동 + 조동사-수동)</t>
   </si>
@@ -1047,6 +1046,297 @@
   </si>
   <si>
     <t>현재-완료-진행 (조동사 + 수동) -</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>You (do) move chair</t>
+  </si>
+  <si>
+    <t>chair is moved by you</t>
+  </si>
+  <si>
+    <t>You can move chair</t>
+  </si>
+  <si>
+    <t>chair can be moved by you</t>
+  </si>
+  <si>
+    <t>You don't move chair</t>
+  </si>
+  <si>
+    <t>chair isn't moved by you</t>
+  </si>
+  <si>
+    <t>You can't move chair</t>
+  </si>
+  <si>
+    <t>chair can't be moved by you</t>
+  </si>
+  <si>
+    <t>Do you move chair?</t>
+  </si>
+  <si>
+    <t>Is chair moved by you?</t>
+  </si>
+  <si>
+    <t>Can you move chair?</t>
+  </si>
+  <si>
+    <t>Can chair be moved by you?</t>
+  </si>
+  <si>
+    <t>You are moving chair</t>
+  </si>
+  <si>
+    <t>chair is being moved by you</t>
+  </si>
+  <si>
+    <t>You can be moving chair</t>
+  </si>
+  <si>
+    <t>chair can be being moved by you</t>
+  </si>
+  <si>
+    <t>You aren't moving chair</t>
+  </si>
+  <si>
+    <t>chair isn't being moved by you</t>
+  </si>
+  <si>
+    <t>You can't be moving chair</t>
+  </si>
+  <si>
+    <t>chair can't be being moved by you</t>
+  </si>
+  <si>
+    <t>Are you moving chair?</t>
+  </si>
+  <si>
+    <t>Is chair being moved by you?</t>
+  </si>
+  <si>
+    <t>Can you be moving chair?</t>
+  </si>
+  <si>
+    <t>Can chair be being moved by you?</t>
+  </si>
+  <si>
+    <t>You have moved chair</t>
+  </si>
+  <si>
+    <t>chair has been moved by you</t>
+  </si>
+  <si>
+    <t>You can have moved chair</t>
+  </si>
+  <si>
+    <t>chair can have been moved by you</t>
+  </si>
+  <si>
+    <t>You haven't moved chair</t>
+  </si>
+  <si>
+    <t>chair han't been moved by you</t>
+  </si>
+  <si>
+    <t>You can't have moved chair</t>
+  </si>
+  <si>
+    <t>chair can't have been moved by you</t>
+  </si>
+  <si>
+    <t>Have you moved chair?</t>
+  </si>
+  <si>
+    <t>Has chair been moved by you?</t>
+  </si>
+  <si>
+    <t>Can you have moved chair?</t>
+  </si>
+  <si>
+    <t>Can chair have been moved by you?</t>
+  </si>
+  <si>
+    <t>You have been moving chair</t>
+  </si>
+  <si>
+    <t>chair has been being moved by you</t>
+  </si>
+  <si>
+    <t>You can have been moving chair</t>
+  </si>
+  <si>
+    <t>chair can have been being moved by you</t>
+  </si>
+  <si>
+    <t>You haven't been moving chair</t>
+  </si>
+  <si>
+    <t>chair hasn't been being moved by you</t>
+  </si>
+  <si>
+    <t>You can't have been moving chair</t>
+  </si>
+  <si>
+    <t>chair can't have been being moved by you</t>
+  </si>
+  <si>
+    <t>Have you been moving chair?</t>
+  </si>
+  <si>
+    <t>Has chair been being moved by you?</t>
+  </si>
+  <si>
+    <t>Can you have been moving chair?</t>
+  </si>
+  <si>
+    <t>Can chair have been being moved by you?</t>
+  </si>
+  <si>
+    <t>You spoke chair</t>
+  </si>
+  <si>
+    <t>chair was moved by you</t>
+  </si>
+  <si>
+    <t>You could move chair</t>
+  </si>
+  <si>
+    <t>chair could be moved by you</t>
+  </si>
+  <si>
+    <t>You didn't move chair</t>
+  </si>
+  <si>
+    <t>chair wasn't moved by you</t>
+  </si>
+  <si>
+    <t>You couldn't move chair</t>
+  </si>
+  <si>
+    <t>chair couldn't be moved by you</t>
+  </si>
+  <si>
+    <t>Did you move chair?</t>
+  </si>
+  <si>
+    <t>Was chair moved by you?</t>
+  </si>
+  <si>
+    <t>Could you move chair?</t>
+  </si>
+  <si>
+    <t>Could chair be moved by you?</t>
+  </si>
+  <si>
+    <t>You were moving chair</t>
+  </si>
+  <si>
+    <t>chair was being moved by you</t>
+  </si>
+  <si>
+    <t>You could be moving chair</t>
+  </si>
+  <si>
+    <t>chair could be being moved by you</t>
+  </si>
+  <si>
+    <t>You weren't moving chair</t>
+  </si>
+  <si>
+    <t>chair wasn't being moved by you</t>
+  </si>
+  <si>
+    <t>You couldn't be moving chair</t>
+  </si>
+  <si>
+    <t>chair couldn't be being moved by you</t>
+  </si>
+  <si>
+    <t>Were you moving chair?</t>
+  </si>
+  <si>
+    <t>Was chair being moved by you?</t>
+  </si>
+  <si>
+    <t>Could you be moving chair?</t>
+  </si>
+  <si>
+    <t>Could chair be being moved by you?</t>
+  </si>
+  <si>
+    <t>You had moved chair</t>
+  </si>
+  <si>
+    <t>chair had been moved by you</t>
+  </si>
+  <si>
+    <t>You could have moved chair</t>
+  </si>
+  <si>
+    <t>chair could have been moved by you</t>
+  </si>
+  <si>
+    <t>You hadn't moved chair</t>
+  </si>
+  <si>
+    <t>chair hadn't been moved by you</t>
+  </si>
+  <si>
+    <t>You couldn't have moved chair</t>
+  </si>
+  <si>
+    <t>chair couldn't have been moved by you</t>
+  </si>
+  <si>
+    <t>Had you moved chair?</t>
+  </si>
+  <si>
+    <t>Had chair been moved by you?</t>
+  </si>
+  <si>
+    <t>Could you have moved chair?</t>
+  </si>
+  <si>
+    <t>Could chair have been moved by you?</t>
+  </si>
+  <si>
+    <t>You had been moving chair</t>
+  </si>
+  <si>
+    <t>chair had been being moved by you</t>
+  </si>
+  <si>
+    <t>You could have been moving chair</t>
+  </si>
+  <si>
+    <t>chair could have been being moved by you</t>
+  </si>
+  <si>
+    <t>You hadn't been moving chair</t>
+  </si>
+  <si>
+    <t>chair hadn't been being moved by you</t>
+  </si>
+  <si>
+    <t>You couldn't have been moving chair</t>
+  </si>
+  <si>
+    <t>chair couldn't have been being moved by you</t>
+  </si>
+  <si>
+    <t>Had you been moving chair?</t>
+  </si>
+  <si>
+    <t>Had chair been being moved by you?</t>
+  </si>
+  <si>
+    <t>Could you have been moving chair?</t>
+  </si>
+  <si>
+    <t>Could chair have been being moved by you?</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1491,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1250,6 +1540,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="57">
     <border>
@@ -1941,7 +2237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2272,6 +2568,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2568,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="A1:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4301,12 +4600,625 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="170" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="118">
+        <v>1</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="131" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="134" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="122">
+        <v>2</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="135" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="132" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="136" t="s">
+        <v>359</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="124">
+        <v>3</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="137" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>367</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="136" t="s">
+        <v>371</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="116">
+        <v>4</v>
+      </c>
+      <c r="B15" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="127" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="128" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="117"/>
+      <c r="B16" s="129" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="130" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" s="130" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="132" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" s="133" t="s">
+        <v>379</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A19" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>381</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" s="138" t="s">
+        <v>383</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A20" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="59">
+        <v>5</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" s="109" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>386</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>387</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="96" t="s">
+        <v>391</v>
+      </c>
+      <c r="E23" s="92" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" s="89" t="s">
+        <v>394</v>
+      </c>
+      <c r="D24" s="97" t="s">
+        <v>395</v>
+      </c>
+      <c r="E24" s="93" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="78">
+        <v>6</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" s="110" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" s="112" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>397</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>398</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>399</v>
+      </c>
+      <c r="E26" s="91" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="D27" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="D28" s="97" t="s">
+        <v>407</v>
+      </c>
+      <c r="E28" s="93" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="72">
+        <v>7</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="113" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" s="114" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="115" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="D30" s="95" t="s">
+        <v>411</v>
+      </c>
+      <c r="E30" s="91" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>414</v>
+      </c>
+      <c r="D31" s="96" t="s">
+        <v>415</v>
+      </c>
+      <c r="E31" s="92" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A32" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>417</v>
+      </c>
+      <c r="C32" s="89" t="s">
+        <v>418</v>
+      </c>
+      <c r="D32" s="97" t="s">
+        <v>419</v>
+      </c>
+      <c r="E32" s="93" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="85">
+        <v>8</v>
+      </c>
+      <c r="B33" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>322</v>
+      </c>
+      <c r="E33" s="102" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A34" s="86"/>
+      <c r="B34" s="103" t="s">
+        <v>312</v>
+      </c>
+      <c r="C34" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="D34" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="E34" s="106" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>421</v>
+      </c>
+      <c r="C35" s="87" t="s">
+        <v>422</v>
+      </c>
+      <c r="D35" s="95" t="s">
+        <v>423</v>
+      </c>
+      <c r="E35" s="91" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="C36" s="88" t="s">
+        <v>426</v>
+      </c>
+      <c r="D36" s="96" t="s">
+        <v>427</v>
+      </c>
+      <c r="E36" s="92" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A37" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>429</v>
+      </c>
+      <c r="C37" s="90" t="s">
+        <v>430</v>
+      </c>
+      <c r="D37" s="98" t="s">
+        <v>431</v>
+      </c>
+      <c r="E37" s="94" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/12X시제(능동+수동+조동사-능동+조동사-수동).xlsx
+++ b/12X시제(능동+수동+조동사-능동+조동사-수동).xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="12345" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="12345" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Speak" sheetId="1" r:id="rId1"/>
     <sheet name="Invite" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Move" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="578">
   <si>
     <t>12x 시제  (능동 + 수동    조동사-능동 + 조동사-수동)</t>
   </si>
@@ -1338,12 +1339,447 @@
   <si>
     <t>Could chair have been being moved by you?</t>
   </si>
+  <si>
+    <t>You will move him</t>
+  </si>
+  <si>
+    <t>He will be moved by you</t>
+  </si>
+  <si>
+    <t>You won't move him</t>
+  </si>
+  <si>
+    <t>He won't be moved by you</t>
+  </si>
+  <si>
+    <t>Will you move him?</t>
+  </si>
+  <si>
+    <t>Will he be moved by you?</t>
+  </si>
+  <si>
+    <t>He will be being moved by you</t>
+  </si>
+  <si>
+    <t>He won't be being moved by you</t>
+  </si>
+  <si>
+    <t>Will he be being moved by you?</t>
+  </si>
+  <si>
+    <t>You will have moved him</t>
+  </si>
+  <si>
+    <t>He will have been moved by you</t>
+  </si>
+  <si>
+    <t>You won't have moved him</t>
+  </si>
+  <si>
+    <t>He won't have been moved by you</t>
+  </si>
+  <si>
+    <t>Will you have moved him?</t>
+  </si>
+  <si>
+    <t>Will he have been moved by you?</t>
+  </si>
+  <si>
+    <t>He will have been being moved by you</t>
+  </si>
+  <si>
+    <t>He won't haven been being moved by you</t>
+  </si>
+  <si>
+    <t>Will he have been being moved by you?</t>
+  </si>
+  <si>
+    <t>You will be moving him</t>
+  </si>
+  <si>
+    <t>You won't be moving him</t>
+  </si>
+  <si>
+    <t>Will you be moving him?</t>
+  </si>
+  <si>
+    <t>You will have been moving him</t>
+  </si>
+  <si>
+    <t>You won't have been moving him</t>
+  </si>
+  <si>
+    <t>Will you have been moving him?</t>
+  </si>
+  <si>
+    <t>solve</t>
+  </si>
+  <si>
+    <t>You will solve him</t>
+  </si>
+  <si>
+    <t>He will be solved by you</t>
+  </si>
+  <si>
+    <t>You won't solve him</t>
+  </si>
+  <si>
+    <t>He won't be solved by you</t>
+  </si>
+  <si>
+    <t>Will you solve him?</t>
+  </si>
+  <si>
+    <t>Will he be solved by you?</t>
+  </si>
+  <si>
+    <t>He will be being solved by you</t>
+  </si>
+  <si>
+    <t>He won't be being solved by you</t>
+  </si>
+  <si>
+    <t>Will he be being solved by you?</t>
+  </si>
+  <si>
+    <t>You will have solved him</t>
+  </si>
+  <si>
+    <t>He will have been solved by you</t>
+  </si>
+  <si>
+    <t>You won't have solved him</t>
+  </si>
+  <si>
+    <t>He won't have been solved by you</t>
+  </si>
+  <si>
+    <t>Will you have solved him?</t>
+  </si>
+  <si>
+    <t>Will he have been solved by you?</t>
+  </si>
+  <si>
+    <t>He will have been being solved by you</t>
+  </si>
+  <si>
+    <t>He won't haven been being solved by you</t>
+  </si>
+  <si>
+    <t>Will he have been being solved by you?</t>
+  </si>
+  <si>
+    <t>You (do) solve problem</t>
+  </si>
+  <si>
+    <t>problem is solved by you</t>
+  </si>
+  <si>
+    <t>You can solve problem</t>
+  </si>
+  <si>
+    <t>problem can be solved by you</t>
+  </si>
+  <si>
+    <t>You don't solve problem</t>
+  </si>
+  <si>
+    <t>problem isn't solved by you</t>
+  </si>
+  <si>
+    <t>You can't solve problem</t>
+  </si>
+  <si>
+    <t>problem can't be solved by you</t>
+  </si>
+  <si>
+    <t>Do you solve problem?</t>
+  </si>
+  <si>
+    <t>Is problem solved by you?</t>
+  </si>
+  <si>
+    <t>Can you solve problem?</t>
+  </si>
+  <si>
+    <t>Can problem be solved by you?</t>
+  </si>
+  <si>
+    <t>problem is being solved by you</t>
+  </si>
+  <si>
+    <t>problem can be being solved by you</t>
+  </si>
+  <si>
+    <t>problem isn't being solved by you</t>
+  </si>
+  <si>
+    <t>problem can't be being solved by you</t>
+  </si>
+  <si>
+    <t>Is problem being solved by you?</t>
+  </si>
+  <si>
+    <t>Can problem be being solved by you?</t>
+  </si>
+  <si>
+    <t>You have solved problem</t>
+  </si>
+  <si>
+    <t>problem has been solved by you</t>
+  </si>
+  <si>
+    <t>You can have solved problem</t>
+  </si>
+  <si>
+    <t>problem can have been solved by you</t>
+  </si>
+  <si>
+    <t>You haven't solved problem</t>
+  </si>
+  <si>
+    <t>problem han't been solved by you</t>
+  </si>
+  <si>
+    <t>You can't have solved problem</t>
+  </si>
+  <si>
+    <t>problem can't have been solved by you</t>
+  </si>
+  <si>
+    <t>Have you solved problem?</t>
+  </si>
+  <si>
+    <t>Has problem been solved by you?</t>
+  </si>
+  <si>
+    <t>Can you have solved problem?</t>
+  </si>
+  <si>
+    <t>Can problem have been solved by you?</t>
+  </si>
+  <si>
+    <t>problem has been being solved by you</t>
+  </si>
+  <si>
+    <t>problem can have been being solved by you</t>
+  </si>
+  <si>
+    <t>problem hasn't been being solved by you</t>
+  </si>
+  <si>
+    <t>problem can't have been being solved by you</t>
+  </si>
+  <si>
+    <t>Has problem been being solved by you?</t>
+  </si>
+  <si>
+    <t>Can problem have been being solved by you?</t>
+  </si>
+  <si>
+    <t>problem was solved by you</t>
+  </si>
+  <si>
+    <t>You could solve problem</t>
+  </si>
+  <si>
+    <t>problem could be solved by you</t>
+  </si>
+  <si>
+    <t>You didn't solve problem</t>
+  </si>
+  <si>
+    <t>problem wasn't solved by you</t>
+  </si>
+  <si>
+    <t>You couldn't solve problem</t>
+  </si>
+  <si>
+    <t>problem couldn't be solved by you</t>
+  </si>
+  <si>
+    <t>Did you solve problem?</t>
+  </si>
+  <si>
+    <t>Was problem solved by you?</t>
+  </si>
+  <si>
+    <t>Could you solve problem?</t>
+  </si>
+  <si>
+    <t>Could problem be solved by you?</t>
+  </si>
+  <si>
+    <t>problem was being solved by you</t>
+  </si>
+  <si>
+    <t>problem could be being solved by you</t>
+  </si>
+  <si>
+    <t>problem wasn't being solved by you</t>
+  </si>
+  <si>
+    <t>problem couldn't be being solved by you</t>
+  </si>
+  <si>
+    <t>Was problem being solved by you?</t>
+  </si>
+  <si>
+    <t>Could problem be being solved by you?</t>
+  </si>
+  <si>
+    <t>You had solved problem</t>
+  </si>
+  <si>
+    <t>problem had been solved by you</t>
+  </si>
+  <si>
+    <t>You could have solved problem</t>
+  </si>
+  <si>
+    <t>problem could have been solved by you</t>
+  </si>
+  <si>
+    <t>You hadn't solved problem</t>
+  </si>
+  <si>
+    <t>problem hadn't been solved by you</t>
+  </si>
+  <si>
+    <t>You couldn't have solved problem</t>
+  </si>
+  <si>
+    <t>problem couldn't have been solved by you</t>
+  </si>
+  <si>
+    <t>Had you solved problem?</t>
+  </si>
+  <si>
+    <t>Had problem been solved by you?</t>
+  </si>
+  <si>
+    <t>Could you have solved problem?</t>
+  </si>
+  <si>
+    <t>Could problem have been solved by you?</t>
+  </si>
+  <si>
+    <t>problem had been being solved by you</t>
+  </si>
+  <si>
+    <t>problem could have been being solved by you</t>
+  </si>
+  <si>
+    <t>problem hadn't been being solved by you</t>
+  </si>
+  <si>
+    <t>problem couldn't have been being solved by you</t>
+  </si>
+  <si>
+    <t>Had problem been being solved by you?</t>
+  </si>
+  <si>
+    <t>Could problem have been being solved by you?</t>
+  </si>
+  <si>
+    <t>You are solving problem</t>
+  </si>
+  <si>
+    <t>You can be solving problem</t>
+  </si>
+  <si>
+    <t>You aren't solving problem</t>
+  </si>
+  <si>
+    <t>You can't be solving problem</t>
+  </si>
+  <si>
+    <t>Are you solving problem?</t>
+  </si>
+  <si>
+    <t>Can you be solving problem?</t>
+  </si>
+  <si>
+    <t>You have been solving problem</t>
+  </si>
+  <si>
+    <t>You can have been solving problem</t>
+  </si>
+  <si>
+    <t>You haven't been solving problem</t>
+  </si>
+  <si>
+    <t>You can't have been solving problem</t>
+  </si>
+  <si>
+    <t>Have you been solving problem?</t>
+  </si>
+  <si>
+    <t>Can you have been solving problem?</t>
+  </si>
+  <si>
+    <t>You were solving problem</t>
+  </si>
+  <si>
+    <t>You could be solving problem</t>
+  </si>
+  <si>
+    <t>You weren't solving problem</t>
+  </si>
+  <si>
+    <t>You couldn't be solving problem</t>
+  </si>
+  <si>
+    <t>Were you solving problem?</t>
+  </si>
+  <si>
+    <t>Could you be solving problem?</t>
+  </si>
+  <si>
+    <t>You had been solving problem</t>
+  </si>
+  <si>
+    <t>You could have been solving problem</t>
+  </si>
+  <si>
+    <t>You hadn't been solving problem</t>
+  </si>
+  <si>
+    <t>You couldn't have been solving problem</t>
+  </si>
+  <si>
+    <t>Had you been solving problem?</t>
+  </si>
+  <si>
+    <t>Could you have been solving problem?</t>
+  </si>
+  <si>
+    <t>You will be solving him</t>
+  </si>
+  <si>
+    <t>You won't be solving him</t>
+  </si>
+  <si>
+    <t>Will you be solving him?</t>
+  </si>
+  <si>
+    <t>You will have been solving him</t>
+  </si>
+  <si>
+    <t>You won't have been solving him</t>
+  </si>
+  <si>
+    <t>Will you have been solving him?</t>
+  </si>
+  <si>
+    <t>You solved problem</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2577,6 +3013,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2655,6 +3096,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2689,6 +3131,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2864,14 +3307,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C18" sqref="A1:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="83" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="83" bestFit="1" customWidth="1"/>
@@ -2881,12 +3324,12 @@
     <col min="6" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1">
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
@@ -2895,7 +3338,7 @@
       <c r="D2" s="58"/>
       <c r="E2" s="58"/>
     </row>
-    <row r="3" spans="1:5" s="84" customFormat="1" ht="13.5">
+    <row r="3" spans="1:5" s="84" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="118">
         <v>1</v>
       </c>
@@ -2912,7 +3355,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="119" t="s">
         <v>5</v>
       </c>
@@ -2929,7 +3372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="120" t="s">
         <v>9</v>
       </c>
@@ -2946,7 +3389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
         <v>14</v>
       </c>
@@ -2963,7 +3406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="84" customFormat="1" ht="13.5">
+    <row r="7" spans="1:5" s="84" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A7" s="122">
         <v>2</v>
       </c>
@@ -2980,7 +3423,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="123" t="s">
         <v>5</v>
       </c>
@@ -2997,7 +3440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="120" t="s">
         <v>9</v>
       </c>
@@ -3014,7 +3457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="121" t="s">
         <v>14</v>
       </c>
@@ -3031,7 +3474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="84" customFormat="1" ht="13.5">
+    <row r="11" spans="1:5" s="84" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="124">
         <v>3</v>
       </c>
@@ -3048,7 +3491,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="123" t="s">
         <v>5</v>
       </c>
@@ -3065,7 +3508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="120" t="s">
         <v>9</v>
       </c>
@@ -3082,7 +3525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="125" t="s">
         <v>14</v>
       </c>
@@ -3099,7 +3542,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="84" customFormat="1" ht="13.5">
+    <row r="15" spans="1:5" s="84" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="116">
         <v>4</v>
       </c>
@@ -3116,7 +3559,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="84" customFormat="1" ht="13.5">
+    <row r="16" spans="1:5" s="84" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="117"/>
       <c r="B16" s="129" t="s">
         <v>313</v>
@@ -3131,7 +3574,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="119" t="s">
         <v>5</v>
       </c>
@@ -3148,7 +3591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="120" t="s">
         <v>9</v>
       </c>
@@ -3165,7 +3608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" thickBot="1">
+    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="126" t="s">
         <v>14</v>
       </c>
@@ -3182,7 +3625,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25" thickBot="1">
+    <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="76" t="s">
         <v>58</v>
       </c>
@@ -3191,7 +3634,7 @@
       <c r="D20" s="77"/>
       <c r="E20" s="77"/>
     </row>
-    <row r="21" spans="1:5" s="84" customFormat="1" ht="13.5">
+    <row r="21" spans="1:5" s="84" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="59">
         <v>5</v>
       </c>
@@ -3208,7 +3651,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>5</v>
       </c>
@@ -3225,7 +3668,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>9</v>
       </c>
@@ -3242,7 +3685,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>14</v>
       </c>
@@ -3259,7 +3702,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="84" customFormat="1" ht="13.5">
+    <row r="25" spans="1:5" s="84" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <v>6</v>
       </c>
@@ -3276,7 +3719,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
         <v>5</v>
       </c>
@@ -3293,7 +3736,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>9</v>
       </c>
@@ -3310,7 +3753,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>14</v>
       </c>
@@ -3327,7 +3770,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="84" customFormat="1" ht="13.5">
+    <row r="29" spans="1:5" s="84" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A29" s="72">
         <v>7</v>
       </c>
@@ -3344,7 +3787,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
         <v>5</v>
       </c>
@@ -3361,7 +3804,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
         <v>9</v>
       </c>
@@ -3378,7 +3821,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25" thickBot="1">
+    <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44" t="s">
         <v>14</v>
       </c>
@@ -3395,7 +3838,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="85">
         <v>8</v>
       </c>
@@ -3412,7 +3855,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25" thickBot="1">
+    <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="86"/>
       <c r="B34" s="103" t="s">
         <v>312</v>
@@ -3427,7 +3870,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="42" t="s">
         <v>5</v>
       </c>
@@ -3444,7 +3887,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>9</v>
       </c>
@@ -3461,7 +3904,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.25" thickBot="1">
+    <row r="37" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="45" t="s">
         <v>14</v>
       </c>
@@ -3478,21 +3921,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="79"/>
       <c r="B38" s="84"/>
       <c r="C38" s="84"/>
       <c r="D38" s="84"/>
       <c r="E38" s="84"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="84"/>
       <c r="B39" s="84"/>
       <c r="C39" s="84"/>
       <c r="D39" s="84"/>
       <c r="E39" s="84"/>
     </row>
-    <row r="40" spans="1:5" ht="17.25" thickBot="1">
+    <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="80" t="s">
         <v>111</v>
       </c>
@@ -3501,7 +3944,7 @@
       <c r="D40" s="81"/>
       <c r="E40" s="81"/>
     </row>
-    <row r="41" spans="1:5" s="84" customFormat="1" ht="13.5">
+    <row r="41" spans="1:5" s="84" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="145">
         <v>9</v>
       </c>
@@ -3518,7 +3961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="164" t="s">
         <v>5</v>
       </c>
@@ -3531,7 +3974,7 @@
       <c r="D42" s="153"/>
       <c r="E42" s="165"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="140" t="s">
         <v>9</v>
       </c>
@@ -3544,7 +3987,7 @@
       <c r="D43" s="154"/>
       <c r="E43" s="65"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="141" t="s">
         <v>14</v>
       </c>
@@ -3557,7 +4000,7 @@
       <c r="D44" s="155"/>
       <c r="E44" s="71"/>
     </row>
-    <row r="45" spans="1:5" s="84" customFormat="1" ht="13.5">
+    <row r="45" spans="1:5" s="84" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="142">
         <v>10</v>
       </c>
@@ -3574,7 +4017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="139" t="s">
         <v>5</v>
       </c>
@@ -3587,7 +4030,7 @@
       <c r="D46" s="157"/>
       <c r="E46" s="82"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="140" t="s">
         <v>9</v>
       </c>
@@ -3600,7 +4043,7 @@
       <c r="D47" s="154"/>
       <c r="E47" s="65"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="141" t="s">
         <v>14</v>
       </c>
@@ -3613,7 +4056,7 @@
       <c r="D48" s="155"/>
       <c r="E48" s="71"/>
     </row>
-    <row r="49" spans="1:5" s="84" customFormat="1" ht="13.5">
+    <row r="49" spans="1:5" s="84" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="124">
         <v>11</v>
       </c>
@@ -3630,7 +4073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="139" t="s">
         <v>5</v>
       </c>
@@ -3643,7 +4086,7 @@
       <c r="D50" s="157"/>
       <c r="E50" s="82"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="140" t="s">
         <v>9</v>
       </c>
@@ -3656,7 +4099,7 @@
       <c r="D51" s="154"/>
       <c r="E51" s="65"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="141" t="s">
         <v>14</v>
       </c>
@@ -3669,7 +4112,7 @@
       <c r="D52" s="155"/>
       <c r="E52" s="71"/>
     </row>
-    <row r="53" spans="1:5" s="84" customFormat="1" ht="13.5">
+    <row r="53" spans="1:5" s="84" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="166">
         <v>12</v>
       </c>
@@ -3686,7 +4129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="84" customFormat="1" ht="13.5">
+    <row r="54" spans="1:5" s="84" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A54" s="167"/>
       <c r="B54" s="129" t="s">
         <v>330</v>
@@ -3697,7 +4140,7 @@
       <c r="D54" s="103"/>
       <c r="E54" s="130"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="139" t="s">
         <v>5</v>
       </c>
@@ -3710,7 +4153,7 @@
       <c r="D55" s="157"/>
       <c r="E55" s="82"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="140" t="s">
         <v>9</v>
       </c>
@@ -3723,7 +4166,7 @@
       <c r="D56" s="154"/>
       <c r="E56" s="65"/>
     </row>
-    <row r="57" spans="1:5" ht="17.25" thickBot="1">
+    <row r="57" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="143" t="s">
         <v>14</v>
       </c>
@@ -3743,14 +4186,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A8:E8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E56" sqref="A40:E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -3758,7 +4201,7 @@
     <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -3767,7 +4210,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>191</v>
       </c>
@@ -3776,7 +4219,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -3785,7 +4228,7 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="48">
         <v>1</v>
       </c>
@@ -3802,7 +4245,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
@@ -3819,7 +4262,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
@@ -3836,7 +4279,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>14</v>
       </c>
@@ -3853,7 +4296,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>2</v>
       </c>
@@ -3870,7 +4313,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>5</v>
       </c>
@@ -3887,7 +4330,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>9</v>
       </c>
@@ -3904,7 +4347,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
         <v>14</v>
       </c>
@@ -3921,7 +4364,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="50">
         <v>3</v>
       </c>
@@ -3938,7 +4381,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>5</v>
       </c>
@@ -3955,7 +4398,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>9</v>
       </c>
@@ -3972,7 +4415,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>14</v>
       </c>
@@ -3989,7 +4432,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="51">
         <v>4</v>
       </c>
@@ -4006,7 +4449,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>5</v>
       </c>
@@ -4023,7 +4466,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>9</v>
       </c>
@@ -4040,7 +4483,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>14</v>
       </c>
@@ -4057,14 +4500,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>58</v>
       </c>
@@ -4073,7 +4516,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="48">
         <v>5</v>
       </c>
@@ -4090,7 +4533,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>5</v>
       </c>
@@ -4107,7 +4550,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>9</v>
       </c>
@@ -4124,7 +4567,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>14</v>
       </c>
@@ -4141,7 +4584,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="52">
         <v>6</v>
       </c>
@@ -4158,7 +4601,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>5</v>
       </c>
@@ -4175,7 +4618,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>9</v>
       </c>
@@ -4192,7 +4635,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>14</v>
       </c>
@@ -4209,7 +4652,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <v>7</v>
       </c>
@@ -4226,7 +4669,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>5</v>
       </c>
@@ -4243,7 +4686,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>9</v>
       </c>
@@ -4260,7 +4703,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>14</v>
       </c>
@@ -4277,7 +4720,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="51">
         <v>8</v>
       </c>
@@ -4294,7 +4737,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>5</v>
       </c>
@@ -4311,7 +4754,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>9</v>
       </c>
@@ -4328,7 +4771,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>14</v>
       </c>
@@ -4345,21 +4788,21 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="16.5" thickBot="1">
+    <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="54" t="s">
         <v>111</v>
       </c>
@@ -4368,7 +4811,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="48">
         <v>9</v>
       </c>
@@ -4385,7 +4828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>5</v>
       </c>
@@ -4398,7 +4841,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
         <v>9</v>
       </c>
@@ -4411,7 +4854,7 @@
       <c r="D43" s="23"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>14</v>
       </c>
@@ -4424,7 +4867,7 @@
       <c r="D44" s="24"/>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="52">
         <v>10</v>
       </c>
@@ -4441,7 +4884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>5</v>
       </c>
@@ -4454,7 +4897,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
         <v>9</v>
       </c>
@@ -4467,7 +4910,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
         <v>14</v>
       </c>
@@ -4480,7 +4923,7 @@
       <c r="D48" s="24"/>
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="50">
         <v>11</v>
       </c>
@@ -4497,7 +4940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>5</v>
       </c>
@@ -4510,7 +4953,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
         <v>9</v>
       </c>
@@ -4523,7 +4966,7 @@
       <c r="D51" s="23"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="40" t="s">
         <v>14</v>
       </c>
@@ -4536,7 +4979,7 @@
       <c r="D52" s="24"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="51">
         <v>12</v>
       </c>
@@ -4553,7 +4996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
         <v>5</v>
       </c>
@@ -4566,7 +5009,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
         <v>9</v>
       </c>
@@ -4579,7 +5022,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1">
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="41" t="s">
         <v>14</v>
       </c>
@@ -4599,14 +5042,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -4615,7 +5058,7 @@
     <col min="5" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -4626,7 +5069,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
@@ -4635,7 +5078,7 @@
       <c r="D2" s="58"/>
       <c r="E2" s="58"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="118">
         <v>1</v>
       </c>
@@ -4652,7 +5095,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="119" t="s">
         <v>5</v>
       </c>
@@ -4669,7 +5112,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="120" t="s">
         <v>9</v>
       </c>
@@ -4686,7 +5129,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
         <v>14</v>
       </c>
@@ -4703,7 +5146,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="122">
         <v>2</v>
       </c>
@@ -4720,7 +5163,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="123" t="s">
         <v>5</v>
       </c>
@@ -4737,7 +5180,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="120" t="s">
         <v>9</v>
       </c>
@@ -4754,7 +5197,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="121" t="s">
         <v>14</v>
       </c>
@@ -4771,7 +5214,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="124">
         <v>3</v>
       </c>
@@ -4788,7 +5231,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="123" t="s">
         <v>5</v>
       </c>
@@ -4805,7 +5248,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="120" t="s">
         <v>9</v>
       </c>
@@ -4822,7 +5265,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="125" t="s">
         <v>14</v>
       </c>
@@ -4839,7 +5282,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="116">
         <v>4</v>
       </c>
@@ -4856,7 +5299,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="117"/>
       <c r="B16" s="129" t="s">
         <v>313</v>
@@ -4871,7 +5314,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>5</v>
       </c>
@@ -4888,7 +5331,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="120" t="s">
         <v>9</v>
       </c>
@@ -4905,7 +5348,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="126" t="s">
         <v>14</v>
       </c>
@@ -4922,7 +5365,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="76" t="s">
         <v>58</v>
       </c>
@@ -4931,7 +5374,7 @@
       <c r="D20" s="77"/>
       <c r="E20" s="77"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="59">
         <v>5</v>
       </c>
@@ -4948,7 +5391,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>5</v>
       </c>
@@ -4965,7 +5408,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>9</v>
       </c>
@@ -4982,7 +5425,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>14</v>
       </c>
@@ -4999,7 +5442,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <v>6</v>
       </c>
@@ -5016,7 +5459,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>5</v>
       </c>
@@ -5033,7 +5476,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>9</v>
       </c>
@@ -5050,7 +5493,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
         <v>14</v>
       </c>
@@ -5067,7 +5510,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="72">
         <v>7</v>
       </c>
@@ -5084,7 +5527,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>5</v>
       </c>
@@ -5101,7 +5544,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>9</v>
       </c>
@@ -5118,7 +5561,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>14</v>
       </c>
@@ -5135,7 +5578,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="85">
         <v>8</v>
       </c>
@@ -5152,7 +5595,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="86"/>
       <c r="B34" s="103" t="s">
         <v>312</v>
@@ -5167,7 +5610,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>5</v>
       </c>
@@ -5184,7 +5627,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>9</v>
       </c>
@@ -5201,7 +5644,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>14</v>
       </c>
@@ -5217,6 +5660,1098 @@
       <c r="E37" s="94" t="s">
         <v>432</v>
       </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="48">
+        <v>9</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="52">
+        <v>10</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="50">
+        <v>11</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="51">
+        <v>12</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="170" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="118">
+        <v>1</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="131" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>478</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>482</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>485</v>
+      </c>
+      <c r="D6" s="134" t="s">
+        <v>486</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="122">
+        <v>2</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="135" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>488</v>
+      </c>
+      <c r="D8" s="132" t="s">
+        <v>548</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>490</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>550</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" s="136" t="s">
+        <v>552</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="124">
+        <v>3</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="137" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>494</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>495</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>496</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>498</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>500</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>503</v>
+      </c>
+      <c r="D14" s="136" t="s">
+        <v>504</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="116">
+        <v>4</v>
+      </c>
+      <c r="B15" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="127" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="128" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="117"/>
+      <c r="B16" s="129" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="130" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" s="130" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>553</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" s="132" t="s">
+        <v>554</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>508</v>
+      </c>
+      <c r="D18" s="133" t="s">
+        <v>556</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>557</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>510</v>
+      </c>
+      <c r="D19" s="138" t="s">
+        <v>558</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="59">
+        <v>5</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" s="109" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>577</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>512</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>513</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>515</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>516</v>
+      </c>
+      <c r="D23" s="96" t="s">
+        <v>517</v>
+      </c>
+      <c r="E23" s="92" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>519</v>
+      </c>
+      <c r="C24" s="89" t="s">
+        <v>520</v>
+      </c>
+      <c r="D24" s="97" t="s">
+        <v>521</v>
+      </c>
+      <c r="E24" s="93" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="78">
+        <v>6</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" s="110" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" s="112" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>559</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>523</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>560</v>
+      </c>
+      <c r="E26" s="91" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>561</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>525</v>
+      </c>
+      <c r="D27" s="96" t="s">
+        <v>562</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="C28" s="89" t="s">
+        <v>527</v>
+      </c>
+      <c r="D28" s="97" t="s">
+        <v>564</v>
+      </c>
+      <c r="E28" s="93" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="72">
+        <v>7</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="113" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" s="114" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="115" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>529</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>530</v>
+      </c>
+      <c r="D30" s="95" t="s">
+        <v>531</v>
+      </c>
+      <c r="E30" s="91" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>534</v>
+      </c>
+      <c r="D31" s="96" t="s">
+        <v>535</v>
+      </c>
+      <c r="E31" s="92" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>537</v>
+      </c>
+      <c r="C32" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="D32" s="97" t="s">
+        <v>539</v>
+      </c>
+      <c r="E32" s="93" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="85">
+        <v>8</v>
+      </c>
+      <c r="B33" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>322</v>
+      </c>
+      <c r="E33" s="102" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="86"/>
+      <c r="B34" s="103" t="s">
+        <v>312</v>
+      </c>
+      <c r="C34" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="D34" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="E34" s="106" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>565</v>
+      </c>
+      <c r="C35" s="87" t="s">
+        <v>541</v>
+      </c>
+      <c r="D35" s="95" t="s">
+        <v>566</v>
+      </c>
+      <c r="E35" s="91" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="C36" s="88" t="s">
+        <v>543</v>
+      </c>
+      <c r="D36" s="96" t="s">
+        <v>568</v>
+      </c>
+      <c r="E36" s="92" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>569</v>
+      </c>
+      <c r="C37" s="90" t="s">
+        <v>545</v>
+      </c>
+      <c r="D37" s="98" t="s">
+        <v>570</v>
+      </c>
+      <c r="E37" s="94" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="48">
+        <v>9</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="52">
+        <v>10</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="50">
+        <v>11</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="51">
+        <v>12</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
